--- a/Data/transport_costs_emissions.xlsx
+++ b/Data/transport_costs_emissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\Reorganized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steffejb\OneDrive - NTNU\Work\GitHub\AIM_Norwegian_Freight_Model\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57079973-D757-47EC-8519-6B9918B9FD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{57079973-D757-47EC-8519-6B9918B9FD5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{E30F6FB3-1A36-46FB-8253-0BBDE1CF4B7B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5AE32870-AF16-462E-B631-817A89F76936}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -297,8 +297,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -477,7 +477,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
@@ -486,9 +486,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -820,8 +820,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R631"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +831,7 @@
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.85546875" customWidth="1"/>
     <col min="11" max="11" width="27.28515625" customWidth="1"/>
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
@@ -27553,7 +27553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B08A794-8873-43D6-A027-1749091B636F}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/Data/transport_costs_emissions.xlsx
+++ b/Data/transport_costs_emissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_EC29613FE1988E02C12D4CC66539F6364CA00BE6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24073D67-1187-4E49-9038-2E9A85162EE3}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_EC29613FE1988E02C12D4CC66539F6364CA00BE6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AB546CF-A332-4856-B0A8-23DF7006BC8E}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,13 +555,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/Data/transport_costs_emissions.xlsx
+++ b/Data/transport_costs_emissions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_EC29613FE1988E02C12D4CC66539F6364CA00BE6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24073D67-1187-4E49-9038-2E9A85162EE3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D746EB3-D1C5-4202-B119-AAE1023AB614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs_emissions" sheetId="1" r:id="rId1"/>
@@ -555,13 +555,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -16969,5 +16972,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/transport_costs_emissions.xlsx
+++ b/Data/transport_costs_emissions.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\home.ansatt.ntnu.no\egbertrv\Documents\GitHub\AIM_Norwegian_Freight_Model\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_EC29613FE1988E02C12D4CC66539F6364CA00BE6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AB546CF-A332-4856-B0A8-23DF7006BC8E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA2CEE3-6909-44BF-9F01-6969C1D7D73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="28800" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="costs_emissions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -556,7 +569,7 @@
   <dimension ref="A1:H631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +620,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G2">
         <v>0.65895476111832385</v>
@@ -633,7 +646,7 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G3">
         <v>0.85664118945382117</v>
@@ -659,7 +672,7 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G4">
         <v>1.0732816170171651</v>
@@ -685,7 +698,7 @@
         <v>34</v>
       </c>
       <c r="F5">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G5">
         <v>0.69849204678542332</v>
@@ -711,7 +724,7 @@
         <v>35</v>
       </c>
       <c r="F6">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G6">
         <v>0.73802933245252278</v>
@@ -737,7 +750,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G7">
         <v>0.36741720013870183</v>
@@ -763,7 +776,7 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G8">
         <v>0.47764236018031242</v>
@@ -789,7 +802,7 @@
         <v>33</v>
       </c>
       <c r="F9">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G9">
         <v>0.59843581070047969</v>
@@ -815,7 +828,7 @@
         <v>34</v>
       </c>
       <c r="F10">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G10">
         <v>0.38946223214702391</v>
@@ -841,7 +854,7 @@
         <v>35</v>
       </c>
       <c r="F11">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G11">
         <v>0.411507264155346</v>
@@ -867,7 +880,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G12">
         <v>0.36741720013870183</v>
@@ -893,7 +906,7 @@
         <v>32</v>
       </c>
       <c r="F13">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G13">
         <v>0.47764236018031242</v>
@@ -919,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="F14">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G14">
         <v>0.59843581070047969</v>
@@ -945,7 +958,7 @@
         <v>34</v>
       </c>
       <c r="F15">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G15">
         <v>0.38946223214702391</v>
@@ -971,7 +984,7 @@
         <v>35</v>
       </c>
       <c r="F16">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G16">
         <v>0.411507264155346</v>
@@ -997,7 +1010,7 @@
         <v>31</v>
       </c>
       <c r="F17">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G17">
         <v>0.36741720013870183</v>
@@ -1023,7 +1036,7 @@
         <v>32</v>
       </c>
       <c r="F18">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G18">
         <v>0.47764236018031242</v>
@@ -1049,7 +1062,7 @@
         <v>33</v>
       </c>
       <c r="F19">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G19">
         <v>0.59843581070047969</v>
@@ -1075,7 +1088,7 @@
         <v>34</v>
       </c>
       <c r="F20">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G20">
         <v>0.38946223214702391</v>
@@ -1101,7 +1114,7 @@
         <v>35</v>
       </c>
       <c r="F21">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G21">
         <v>0.411507264155346</v>
@@ -1127,7 +1140,7 @@
         <v>31</v>
       </c>
       <c r="F22">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G22">
         <v>0.36741720013870183</v>
@@ -1153,7 +1166,7 @@
         <v>32</v>
       </c>
       <c r="F23">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G23">
         <v>0.47764236018031242</v>
@@ -1179,7 +1192,7 @@
         <v>33</v>
       </c>
       <c r="F24">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G24">
         <v>0.59843581070047969</v>
@@ -1205,7 +1218,7 @@
         <v>34</v>
       </c>
       <c r="F25">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G25">
         <v>0.38946223214702391</v>
@@ -1231,7 +1244,7 @@
         <v>35</v>
       </c>
       <c r="F26">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G26">
         <v>0.411507264155346</v>
@@ -1257,7 +1270,7 @@
         <v>31</v>
       </c>
       <c r="F27">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G27">
         <v>0.3566108118993282</v>
@@ -1283,7 +1296,7 @@
         <v>32</v>
       </c>
       <c r="F28">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G28">
         <v>0.46359405546912669</v>
@@ -1309,7 +1322,7 @@
         <v>33</v>
       </c>
       <c r="F29">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G29">
         <v>0.58083475744458324</v>
@@ -1335,7 +1348,7 @@
         <v>34</v>
       </c>
       <c r="F30">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G30">
         <v>0.37800746061328788</v>
@@ -1361,7 +1374,7 @@
         <v>35</v>
       </c>
       <c r="F31">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G31">
         <v>0.39940410932724763</v>
@@ -1387,7 +1400,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G32">
         <v>0.36741720013870183</v>
@@ -1413,7 +1426,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G33">
         <v>0.47764236018031242</v>
@@ -1439,7 +1452,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G34">
         <v>0.59843581070047969</v>
@@ -1465,7 +1478,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G35">
         <v>0.38946223214702391</v>
@@ -1491,7 +1504,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G36">
         <v>0.411507264155346</v>
@@ -1517,7 +1530,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G37">
         <v>7.4927486174924743E-2</v>
@@ -1543,7 +1556,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G38">
         <v>8.2420234792417224E-2</v>
@@ -1569,7 +1582,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G39">
         <v>8.8189651227886426E-2</v>
@@ -1595,7 +1608,7 @@
         <v>33</v>
       </c>
       <c r="F40">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G40">
         <v>1069.99893</v>
@@ -1621,7 +1634,7 @@
         <v>39</v>
       </c>
       <c r="F41">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G41">
         <v>1069.99893</v>
@@ -1647,7 +1660,7 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G42">
         <v>9.8904281750900658E-2</v>
@@ -1673,7 +1686,7 @@
         <v>35</v>
       </c>
       <c r="F43">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G43">
         <v>0.1038494958384457</v>
@@ -1699,7 +1712,7 @@
         <v>36</v>
       </c>
       <c r="F44">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G44">
         <v>7.9334985361685012E-2</v>
@@ -1725,7 +1738,7 @@
         <v>37</v>
       </c>
       <c r="F45">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G45">
         <v>8.7268483897853522E-2</v>
@@ -1751,7 +1764,7 @@
         <v>38</v>
       </c>
       <c r="F46">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G46">
         <v>9.3377277770703274E-2</v>
@@ -1777,7 +1790,7 @@
         <v>33</v>
       </c>
       <c r="F47">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G47">
         <v>1132.9400435294119</v>
@@ -1803,7 +1816,7 @@
         <v>39</v>
       </c>
       <c r="F48">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G48">
         <v>1132.9400435294119</v>
@@ -1829,7 +1842,7 @@
         <v>40</v>
       </c>
       <c r="F49">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G49">
         <v>0.1047221806774242</v>
@@ -1855,7 +1868,7 @@
         <v>35</v>
       </c>
       <c r="F50">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G50">
         <v>0.1099582897112954</v>
@@ -1881,7 +1894,7 @@
         <v>36</v>
       </c>
       <c r="F51">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G51">
         <v>7.9334985361685012E-2</v>
@@ -1907,7 +1920,7 @@
         <v>37</v>
       </c>
       <c r="F52">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G52">
         <v>8.7268483897853522E-2</v>
@@ -1933,7 +1946,7 @@
         <v>38</v>
       </c>
       <c r="F53">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G53">
         <v>9.3377277770703274E-2</v>
@@ -1959,7 +1972,7 @@
         <v>33</v>
       </c>
       <c r="F54">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G54">
         <v>1132.9400435294119</v>
@@ -1985,7 +1998,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G55">
         <v>1132.9400435294119</v>
@@ -2011,7 +2024,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G56">
         <v>0.1047221806774242</v>
@@ -2037,7 +2050,7 @@
         <v>35</v>
       </c>
       <c r="F57">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G57">
         <v>0.1099582897112954</v>
@@ -2063,7 +2076,7 @@
         <v>36</v>
       </c>
       <c r="F58">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G58">
         <v>7.9334985361685012E-2</v>
@@ -2089,7 +2102,7 @@
         <v>37</v>
       </c>
       <c r="F59">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G59">
         <v>8.7268483897853522E-2</v>
@@ -2115,7 +2128,7 @@
         <v>38</v>
       </c>
       <c r="F60">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G60">
         <v>9.3377277770703274E-2</v>
@@ -2141,7 +2154,7 @@
         <v>33</v>
       </c>
       <c r="F61">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G61">
         <v>1132.9400435294119</v>
@@ -2167,7 +2180,7 @@
         <v>39</v>
       </c>
       <c r="F62">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G62">
         <v>1132.9400435294119</v>
@@ -2193,7 +2206,7 @@
         <v>40</v>
       </c>
       <c r="F63">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G63">
         <v>0.1047221806774242</v>
@@ -2219,7 +2232,7 @@
         <v>35</v>
       </c>
       <c r="F64">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G64">
         <v>0.1099582897112954</v>
@@ -2245,7 +2258,7 @@
         <v>36</v>
       </c>
       <c r="F65">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G65">
         <v>0.26973895022972899</v>
@@ -2271,7 +2284,7 @@
         <v>37</v>
       </c>
       <c r="F66">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G66">
         <v>0.29671284525270197</v>
@@ -2297,7 +2310,7 @@
         <v>38</v>
       </c>
       <c r="F67">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G67">
         <v>0.31748274442039109</v>
@@ -2323,7 +2336,7 @@
         <v>33</v>
       </c>
       <c r="F68">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G68">
         <v>3851.9961480000011</v>
@@ -2349,7 +2362,7 @@
         <v>39</v>
       </c>
       <c r="F69">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G69">
         <v>3851.9961480000011</v>
@@ -2375,7 +2388,7 @@
         <v>40</v>
       </c>
       <c r="F70">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G70">
         <v>0.35605541430324239</v>
@@ -2401,7 +2414,7 @@
         <v>35</v>
       </c>
       <c r="F71">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G71">
         <v>0.37385818501840451</v>
@@ -2427,7 +2440,7 @@
         <v>36</v>
       </c>
       <c r="F72">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G72">
         <v>0.26973895022972899</v>
@@ -2453,7 +2466,7 @@
         <v>37</v>
       </c>
       <c r="F73">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G73">
         <v>0.29671284525270197</v>
@@ -2479,7 +2492,7 @@
         <v>38</v>
       </c>
       <c r="F74">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G74">
         <v>0.31748274442039109</v>
@@ -2505,7 +2518,7 @@
         <v>33</v>
       </c>
       <c r="F75">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G75">
         <v>3851.9961480000011</v>
@@ -2531,7 +2544,7 @@
         <v>39</v>
       </c>
       <c r="F76">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G76">
         <v>3851.9961480000011</v>
@@ -2557,7 +2570,7 @@
         <v>40</v>
       </c>
       <c r="F77">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G77">
         <v>0.35605541430324239</v>
@@ -2583,7 +2596,7 @@
         <v>35</v>
       </c>
       <c r="F78">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G78">
         <v>0.37385818501840451</v>
@@ -2609,7 +2622,7 @@
         <v>36</v>
       </c>
       <c r="F79">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G79">
         <v>3.9667492680842513E-2</v>
@@ -2635,7 +2648,7 @@
         <v>37</v>
       </c>
       <c r="F80">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G80">
         <v>4.3634241948926761E-2</v>
@@ -2661,7 +2674,7 @@
         <v>38</v>
       </c>
       <c r="F81">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G81">
         <v>4.6688638885351637E-2</v>
@@ -2687,7 +2700,7 @@
         <v>33</v>
       </c>
       <c r="F82">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G82">
         <v>566.47002176470596</v>
@@ -2713,7 +2726,7 @@
         <v>39</v>
       </c>
       <c r="F83">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G83">
         <v>566.47002176470596</v>
@@ -2739,7 +2752,7 @@
         <v>40</v>
       </c>
       <c r="F84">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G84">
         <v>5.2361090338712113E-2</v>
@@ -2765,7 +2778,7 @@
         <v>35</v>
       </c>
       <c r="F85">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G85">
         <v>5.497914485564772E-2</v>
@@ -2791,7 +2804,7 @@
         <v>31</v>
       </c>
       <c r="F86">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G86">
         <v>0.13867199999999999</v>
@@ -2817,7 +2830,7 @@
         <v>41</v>
       </c>
       <c r="F87">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G87">
         <v>0.11556</v>
@@ -2843,7 +2856,7 @@
         <v>42</v>
       </c>
       <c r="F88">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G88">
         <v>0.15253920000000001</v>
@@ -2869,7 +2882,7 @@
         <v>43</v>
       </c>
       <c r="F89">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G89">
         <v>0.16640640000000001</v>
@@ -2895,7 +2908,7 @@
         <v>33</v>
       </c>
       <c r="F90">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G90">
         <v>0.27734399999999998</v>
@@ -2921,7 +2934,7 @@
         <v>34</v>
       </c>
       <c r="F91">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G91">
         <v>0.1456056</v>
@@ -2947,7 +2960,7 @@
         <v>31</v>
       </c>
       <c r="F92">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G92">
         <v>0.19645199999999999</v>
@@ -2973,7 +2986,7 @@
         <v>41</v>
       </c>
       <c r="F93">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G93">
         <v>0.16370999999999999</v>
@@ -2999,7 +3012,7 @@
         <v>42</v>
       </c>
       <c r="F94">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G94">
         <v>0.21609719999999999</v>
@@ -3025,7 +3038,7 @@
         <v>43</v>
       </c>
       <c r="F95">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G95">
         <v>0.23574239999999999</v>
@@ -3051,7 +3064,7 @@
         <v>33</v>
       </c>
       <c r="F96">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G96">
         <v>0.39290399999999998</v>
@@ -3077,7 +3090,7 @@
         <v>34</v>
       </c>
       <c r="F97">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G97">
         <v>0.2062746</v>
@@ -3103,7 +3116,7 @@
         <v>31</v>
       </c>
       <c r="F98">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G98">
         <v>0.19645199999999999</v>
@@ -3129,7 +3142,7 @@
         <v>41</v>
       </c>
       <c r="F99">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G99">
         <v>0.16370999999999999</v>
@@ -3155,7 +3168,7 @@
         <v>42</v>
       </c>
       <c r="F100">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G100">
         <v>0.21609719999999999</v>
@@ -3181,7 +3194,7 @@
         <v>43</v>
       </c>
       <c r="F101">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G101">
         <v>0.23574239999999999</v>
@@ -3207,7 +3220,7 @@
         <v>33</v>
       </c>
       <c r="F102">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G102">
         <v>0.39290399999999998</v>
@@ -3233,7 +3246,7 @@
         <v>34</v>
       </c>
       <c r="F103">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G103">
         <v>0.2062746</v>
@@ -3259,7 +3272,7 @@
         <v>31</v>
       </c>
       <c r="F104">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G104">
         <v>0.19645199999999999</v>
@@ -3285,7 +3298,7 @@
         <v>41</v>
       </c>
       <c r="F105">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G105">
         <v>0.16370999999999999</v>
@@ -3311,7 +3324,7 @@
         <v>42</v>
       </c>
       <c r="F106">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G106">
         <v>0.21609719999999999</v>
@@ -3337,7 +3350,7 @@
         <v>43</v>
       </c>
       <c r="F107">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G107">
         <v>0.23574239999999999</v>
@@ -3363,7 +3376,7 @@
         <v>33</v>
       </c>
       <c r="F108">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G108">
         <v>0.39290399999999998</v>
@@ -3389,7 +3402,7 @@
         <v>34</v>
       </c>
       <c r="F109">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G109">
         <v>0.2062746</v>
@@ -3415,7 +3428,7 @@
         <v>31</v>
       </c>
       <c r="F110">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G110">
         <v>0.19645199999999999</v>
@@ -3441,7 +3454,7 @@
         <v>41</v>
       </c>
       <c r="F111">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G111">
         <v>0.16370999999999999</v>
@@ -3467,7 +3480,7 @@
         <v>42</v>
       </c>
       <c r="F112">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G112">
         <v>0.21609719999999999</v>
@@ -3493,7 +3506,7 @@
         <v>43</v>
       </c>
       <c r="F113">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G113">
         <v>0.23574239999999999</v>
@@ -3519,7 +3532,7 @@
         <v>33</v>
       </c>
       <c r="F114">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G114">
         <v>0.39290399999999998</v>
@@ -3545,7 +3558,7 @@
         <v>34</v>
       </c>
       <c r="F115">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G115">
         <v>0.2062746</v>
@@ -3571,7 +3584,7 @@
         <v>31</v>
       </c>
       <c r="F116">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G116">
         <v>0.19645199999999999</v>
@@ -3597,7 +3610,7 @@
         <v>41</v>
       </c>
       <c r="F117">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G117">
         <v>0.16370999999999999</v>
@@ -3623,7 +3636,7 @@
         <v>42</v>
       </c>
       <c r="F118">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G118">
         <v>0.21609719999999999</v>
@@ -3649,7 +3662,7 @@
         <v>43</v>
       </c>
       <c r="F119">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G119">
         <v>0.23574239999999999</v>
@@ -3675,7 +3688,7 @@
         <v>33</v>
       </c>
       <c r="F120">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G120">
         <v>0.39290399999999998</v>
@@ -3701,7 +3714,7 @@
         <v>34</v>
       </c>
       <c r="F121">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G121">
         <v>0.2062746</v>
@@ -3727,7 +3740,7 @@
         <v>31</v>
       </c>
       <c r="F122">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G122">
         <v>0.17333999999999999</v>
@@ -3753,7 +3766,7 @@
         <v>41</v>
       </c>
       <c r="F123">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G123">
         <v>0.14445</v>
@@ -3779,7 +3792,7 @@
         <v>42</v>
       </c>
       <c r="F124">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G124">
         <v>0.19067400000000001</v>
@@ -3805,7 +3818,7 @@
         <v>43</v>
       </c>
       <c r="F125">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G125">
         <v>0.208008</v>
@@ -3831,7 +3844,7 @@
         <v>33</v>
       </c>
       <c r="F126">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G126">
         <v>0.34667999999999999</v>
@@ -3857,7 +3870,7 @@
         <v>34</v>
       </c>
       <c r="F127">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G127">
         <v>0.182007</v>
@@ -3883,7 +3896,7 @@
         <v>31</v>
       </c>
       <c r="F128">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G128">
         <v>0.65870354372701945</v>
@@ -3909,7 +3922,7 @@
         <v>32</v>
       </c>
       <c r="F129">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G129">
         <v>0.67846465003883005</v>
@@ -3935,7 +3948,7 @@
         <v>33</v>
       </c>
       <c r="F130">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G130">
         <v>0.93665185863485823</v>
@@ -3961,7 +3974,7 @@
         <v>34</v>
       </c>
       <c r="F131">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G131">
         <v>0.73116093353699163</v>
@@ -3987,7 +4000,7 @@
         <v>35</v>
       </c>
       <c r="F132">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G132">
         <v>0.74433500441153189</v>
@@ -4013,7 +4026,7 @@
         <v>31</v>
       </c>
       <c r="F133">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G133">
         <v>0.36727712741142898</v>
@@ -4039,7 +4052,7 @@
         <v>32</v>
       </c>
       <c r="F134">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G134">
         <v>0.37829544123377179</v>
@@ -4065,7 +4078,7 @@
         <v>33</v>
       </c>
       <c r="F135">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G135">
         <v>0.52225436966307237</v>
@@ -4091,7 +4104,7 @@
         <v>34</v>
       </c>
       <c r="F136">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G136">
         <v>0.40767761142668618</v>
@@ -4117,7 +4130,7 @@
         <v>35</v>
       </c>
       <c r="F137">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G137">
         <v>0.41502315397491468</v>
@@ -4143,7 +4156,7 @@
         <v>31</v>
       </c>
       <c r="F138">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G138">
         <v>0.36727712741142898</v>
@@ -4169,7 +4182,7 @@
         <v>32</v>
       </c>
       <c r="F139">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G139">
         <v>0.37829544123377179</v>
@@ -4195,7 +4208,7 @@
         <v>33</v>
       </c>
       <c r="F140">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G140">
         <v>0.52225436966307237</v>
@@ -4221,7 +4234,7 @@
         <v>34</v>
       </c>
       <c r="F141">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G141">
         <v>0.40767761142668618</v>
@@ -4247,7 +4260,7 @@
         <v>35</v>
       </c>
       <c r="F142">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G142">
         <v>0.41502315397491468</v>
@@ -4273,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="F143">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G143">
         <v>0.36727712741142898</v>
@@ -4299,7 +4312,7 @@
         <v>32</v>
       </c>
       <c r="F144">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G144">
         <v>0.37829544123377179</v>
@@ -4325,7 +4338,7 @@
         <v>33</v>
       </c>
       <c r="F145">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G145">
         <v>0.52225436966307237</v>
@@ -4351,7 +4364,7 @@
         <v>34</v>
       </c>
       <c r="F146">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G146">
         <v>0.40767761142668618</v>
@@ -4377,7 +4390,7 @@
         <v>35</v>
       </c>
       <c r="F147">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G147">
         <v>0.41502315397491468</v>
@@ -4403,7 +4416,7 @@
         <v>31</v>
       </c>
       <c r="F148">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G148">
         <v>0.36727712741142898</v>
@@ -4429,7 +4442,7 @@
         <v>32</v>
       </c>
       <c r="F149">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G149">
         <v>0.37829544123377179</v>
@@ -4455,7 +4468,7 @@
         <v>33</v>
       </c>
       <c r="F150">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G150">
         <v>0.52225436966307237</v>
@@ -4481,7 +4494,7 @@
         <v>34</v>
       </c>
       <c r="F151">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G151">
         <v>0.40767761142668618</v>
@@ -4507,7 +4520,7 @@
         <v>35</v>
       </c>
       <c r="F152">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G152">
         <v>0.41502315397491468</v>
@@ -4533,7 +4546,7 @@
         <v>31</v>
       </c>
       <c r="F153">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G153">
         <v>0.35647485895815167</v>
@@ -4559,7 +4572,7 @@
         <v>32</v>
       </c>
       <c r="F154">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G154">
         <v>0.36716910472689618</v>
@@ -4585,7 +4598,7 @@
         <v>33</v>
       </c>
       <c r="F155">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G155">
         <v>0.50689394702592327</v>
@@ -4611,7 +4624,7 @@
         <v>34</v>
       </c>
       <c r="F156">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G156">
         <v>0.39568709344354841</v>
@@ -4637,7 +4650,7 @@
         <v>35</v>
       </c>
       <c r="F157">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G157">
         <v>0.40281659062271141</v>
@@ -4663,7 +4676,7 @@
         <v>31</v>
       </c>
       <c r="F158">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G158">
         <v>0.36727712741142898</v>
@@ -4689,7 +4702,7 @@
         <v>32</v>
       </c>
       <c r="F159">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G159">
         <v>0.37829544123377179</v>
@@ -4715,7 +4728,7 @@
         <v>33</v>
       </c>
       <c r="F160">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G160">
         <v>0.52225436966307237</v>
@@ -4741,7 +4754,7 @@
         <v>34</v>
       </c>
       <c r="F161">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G161">
         <v>0.40767761142668618</v>
@@ -4767,7 +4780,7 @@
         <v>35</v>
       </c>
       <c r="F162">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G162">
         <v>0.41502315397491468</v>
@@ -4793,7 +4806,7 @@
         <v>36</v>
       </c>
       <c r="F163">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G163">
         <v>7.4847512984674749E-2</v>
@@ -4819,7 +4832,7 @@
         <v>37</v>
       </c>
       <c r="F164">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G164">
         <v>8.2332264283142234E-2</v>
@@ -4845,7 +4858,7 @@
         <v>38</v>
       </c>
       <c r="F165">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G165">
         <v>8.8095522782962191E-2</v>
@@ -4871,7 +4884,7 @@
         <v>33</v>
       </c>
       <c r="F166">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G166">
         <v>1069.99893</v>
@@ -4897,7 +4910,7 @@
         <v>39</v>
       </c>
       <c r="F167">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G167">
         <v>1069.99893</v>
@@ -4923,7 +4936,7 @@
         <v>40</v>
       </c>
       <c r="F168">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G168">
         <v>0.1004453624254335</v>
@@ -4949,7 +4962,7 @@
         <v>35</v>
       </c>
       <c r="F169">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G169">
         <v>0.1054676305467052</v>
@@ -4975,7 +4988,7 @@
         <v>36</v>
       </c>
       <c r="F170">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G170">
         <v>7.9250307866126204E-2</v>
@@ -5001,7 +5014,7 @@
         <v>37</v>
       </c>
       <c r="F171">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G171">
         <v>8.717533865273884E-2</v>
@@ -5027,7 +5040,7 @@
         <v>38</v>
       </c>
       <c r="F172">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G172">
         <v>9.3277612358430559E-2</v>
@@ -5053,7 +5066,7 @@
         <v>33</v>
       </c>
       <c r="F173">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G173">
         <v>1132.9400435294119</v>
@@ -5079,7 +5092,7 @@
         <v>39</v>
       </c>
       <c r="F174">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G174">
         <v>1132.9400435294119</v>
@@ -5105,7 +5118,7 @@
         <v>40</v>
       </c>
       <c r="F175">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G175">
         <v>0.10635391315634141</v>
@@ -5131,7 +5144,7 @@
         <v>35</v>
       </c>
       <c r="F176">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G176">
         <v>0.1116716088141585</v>
@@ -5157,7 +5170,7 @@
         <v>36</v>
       </c>
       <c r="F177">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G177">
         <v>7.9250307866126204E-2</v>
@@ -5183,7 +5196,7 @@
         <v>37</v>
       </c>
       <c r="F178">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G178">
         <v>8.717533865273884E-2</v>
@@ -5209,7 +5222,7 @@
         <v>38</v>
       </c>
       <c r="F179">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G179">
         <v>9.3277612358430559E-2</v>
@@ -5235,7 +5248,7 @@
         <v>33</v>
       </c>
       <c r="F180">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G180">
         <v>1132.9400435294119</v>
@@ -5261,7 +5274,7 @@
         <v>39</v>
       </c>
       <c r="F181">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G181">
         <v>1132.9400435294119</v>
@@ -5287,7 +5300,7 @@
         <v>40</v>
       </c>
       <c r="F182">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G182">
         <v>0.10635391315634141</v>
@@ -5313,7 +5326,7 @@
         <v>35</v>
       </c>
       <c r="F183">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G183">
         <v>0.1116716088141585</v>
@@ -5339,7 +5352,7 @@
         <v>36</v>
       </c>
       <c r="F184">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G184">
         <v>7.9250307866126204E-2</v>
@@ -5365,7 +5378,7 @@
         <v>37</v>
       </c>
       <c r="F185">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G185">
         <v>8.717533865273884E-2</v>
@@ -5391,7 +5404,7 @@
         <v>38</v>
       </c>
       <c r="F186">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G186">
         <v>9.3277612358430559E-2</v>
@@ -5417,7 +5430,7 @@
         <v>33</v>
       </c>
       <c r="F187">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G187">
         <v>1132.9400435294119</v>
@@ -5443,7 +5456,7 @@
         <v>39</v>
       </c>
       <c r="F188">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G188">
         <v>1132.9400435294119</v>
@@ -5469,7 +5482,7 @@
         <v>40</v>
       </c>
       <c r="F189">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G189">
         <v>0.10635391315634141</v>
@@ -5495,7 +5508,7 @@
         <v>35</v>
       </c>
       <c r="F190">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G190">
         <v>0.1116716088141585</v>
@@ -5521,7 +5534,7 @@
         <v>36</v>
       </c>
       <c r="F191">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G191">
         <v>0.26945104674482911</v>
@@ -5547,7 +5560,7 @@
         <v>37</v>
       </c>
       <c r="F192">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G192">
         <v>0.29639615141931203</v>
@@ -5573,7 +5586,7 @@
         <v>38</v>
       </c>
       <c r="F193">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G193">
         <v>0.31714388201866389</v>
@@ -5599,7 +5612,7 @@
         <v>33</v>
       </c>
       <c r="F194">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G194">
         <v>3851.9961480000011</v>
@@ -5625,7 +5638,7 @@
         <v>39</v>
       </c>
       <c r="F195">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G195">
         <v>3851.9961480000011</v>
@@ -5651,7 +5664,7 @@
         <v>40</v>
       </c>
       <c r="F196">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G196">
         <v>0.36160330473156072</v>
@@ -5677,7 +5690,7 @@
         <v>35</v>
       </c>
       <c r="F197">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G197">
         <v>0.37968346996813868</v>
@@ -5703,7 +5716,7 @@
         <v>36</v>
       </c>
       <c r="F198">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G198">
         <v>0.26945104674482911</v>
@@ -5729,7 +5742,7 @@
         <v>37</v>
       </c>
       <c r="F199">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G199">
         <v>0.29639615141931203</v>
@@ -5755,7 +5768,7 @@
         <v>38</v>
       </c>
       <c r="F200">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G200">
         <v>0.31714388201866389</v>
@@ -5781,7 +5794,7 @@
         <v>33</v>
       </c>
       <c r="F201">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G201">
         <v>3851.9961480000011</v>
@@ -5807,7 +5820,7 @@
         <v>39</v>
       </c>
       <c r="F202">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G202">
         <v>3851.9961480000011</v>
@@ -5833,7 +5846,7 @@
         <v>40</v>
       </c>
       <c r="F203">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G203">
         <v>0.36160330473156072</v>
@@ -5859,7 +5872,7 @@
         <v>35</v>
       </c>
       <c r="F204">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G204">
         <v>0.37968346996813868</v>
@@ -5885,7 +5898,7 @@
         <v>36</v>
       </c>
       <c r="F205">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G205">
         <v>3.9625153933063102E-2</v>
@@ -5911,7 +5924,7 @@
         <v>37</v>
       </c>
       <c r="F206">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G206">
         <v>4.358766932636942E-2</v>
@@ -5937,7 +5950,7 @@
         <v>38</v>
       </c>
       <c r="F207">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G207">
         <v>4.6638806179215279E-2</v>
@@ -5963,7 +5976,7 @@
         <v>33</v>
       </c>
       <c r="F208">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G208">
         <v>566.47002176470596</v>
@@ -5989,7 +6002,7 @@
         <v>39</v>
       </c>
       <c r="F209">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G209">
         <v>566.47002176470596</v>
@@ -6015,7 +6028,7 @@
         <v>40</v>
       </c>
       <c r="F210">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G210">
         <v>5.3176956578170689E-2</v>
@@ -6041,7 +6054,7 @@
         <v>35</v>
       </c>
       <c r="F211">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G211">
         <v>5.5835804407079227E-2</v>
@@ -6067,7 +6080,7 @@
         <v>31</v>
       </c>
       <c r="F212">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G212">
         <v>0.13867199999999999</v>
@@ -6093,7 +6106,7 @@
         <v>41</v>
       </c>
       <c r="F213">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G213">
         <v>0.11556</v>
@@ -6119,7 +6132,7 @@
         <v>42</v>
       </c>
       <c r="F214">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G214">
         <v>0.15253920000000001</v>
@@ -6145,7 +6158,7 @@
         <v>43</v>
       </c>
       <c r="F215">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G215">
         <v>0.16363295999999999</v>
@@ -6171,7 +6184,7 @@
         <v>33</v>
       </c>
       <c r="F216">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G216">
         <v>0.24960959999999999</v>
@@ -6197,7 +6210,7 @@
         <v>34</v>
       </c>
       <c r="F217">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G217">
         <v>0.14699232000000001</v>
@@ -6223,7 +6236,7 @@
         <v>31</v>
       </c>
       <c r="F218">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G218">
         <v>0.19645199999999999</v>
@@ -6249,7 +6262,7 @@
         <v>41</v>
       </c>
       <c r="F219">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G219">
         <v>0.16370999999999999</v>
@@ -6275,7 +6288,7 @@
         <v>42</v>
       </c>
       <c r="F220">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G220">
         <v>0.21609719999999999</v>
@@ -6301,7 +6314,7 @@
         <v>43</v>
       </c>
       <c r="F221">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G221">
         <v>0.23181336</v>
@@ -6327,7 +6340,7 @@
         <v>33</v>
       </c>
       <c r="F222">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G222">
         <v>0.35361359999999997</v>
@@ -6353,7 +6366,7 @@
         <v>34</v>
       </c>
       <c r="F223">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G223">
         <v>0.20823912</v>
@@ -6379,7 +6392,7 @@
         <v>31</v>
       </c>
       <c r="F224">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G224">
         <v>0.19645199999999999</v>
@@ -6405,7 +6418,7 @@
         <v>41</v>
       </c>
       <c r="F225">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G225">
         <v>0.16370999999999999</v>
@@ -6431,7 +6444,7 @@
         <v>42</v>
       </c>
       <c r="F226">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G226">
         <v>0.21609719999999999</v>
@@ -6457,7 +6470,7 @@
         <v>43</v>
       </c>
       <c r="F227">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G227">
         <v>0.23181336</v>
@@ -6483,7 +6496,7 @@
         <v>33</v>
       </c>
       <c r="F228">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G228">
         <v>0.35361359999999997</v>
@@ -6509,7 +6522,7 @@
         <v>34</v>
       </c>
       <c r="F229">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G229">
         <v>0.20823912</v>
@@ -6535,7 +6548,7 @@
         <v>31</v>
       </c>
       <c r="F230">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G230">
         <v>0.19645199999999999</v>
@@ -6561,7 +6574,7 @@
         <v>41</v>
       </c>
       <c r="F231">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G231">
         <v>0.16370999999999999</v>
@@ -6587,7 +6600,7 @@
         <v>42</v>
       </c>
       <c r="F232">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G232">
         <v>0.21609719999999999</v>
@@ -6613,7 +6626,7 @@
         <v>43</v>
       </c>
       <c r="F233">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G233">
         <v>0.23181336</v>
@@ -6639,7 +6652,7 @@
         <v>33</v>
       </c>
       <c r="F234">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G234">
         <v>0.35361359999999997</v>
@@ -6665,7 +6678,7 @@
         <v>34</v>
       </c>
       <c r="F235">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G235">
         <v>0.20823912</v>
@@ -6691,7 +6704,7 @@
         <v>31</v>
       </c>
       <c r="F236">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G236">
         <v>0.19645199999999999</v>
@@ -6717,7 +6730,7 @@
         <v>41</v>
       </c>
       <c r="F237">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G237">
         <v>0.16370999999999999</v>
@@ -6743,7 +6756,7 @@
         <v>42</v>
       </c>
       <c r="F238">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G238">
         <v>0.21609719999999999</v>
@@ -6769,7 +6782,7 @@
         <v>43</v>
       </c>
       <c r="F239">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G239">
         <v>0.23181336</v>
@@ -6795,7 +6808,7 @@
         <v>33</v>
       </c>
       <c r="F240">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G240">
         <v>0.35361359999999997</v>
@@ -6821,7 +6834,7 @@
         <v>34</v>
       </c>
       <c r="F241">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G241">
         <v>0.20823912</v>
@@ -6847,7 +6860,7 @@
         <v>31</v>
       </c>
       <c r="F242">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G242">
         <v>0.19645199999999999</v>
@@ -6873,7 +6886,7 @@
         <v>41</v>
       </c>
       <c r="F243">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G243">
         <v>0.16370999999999999</v>
@@ -6899,7 +6912,7 @@
         <v>42</v>
       </c>
       <c r="F244">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G244">
         <v>0.21609719999999999</v>
@@ -6925,7 +6938,7 @@
         <v>43</v>
       </c>
       <c r="F245">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G245">
         <v>0.23181336</v>
@@ -6951,7 +6964,7 @@
         <v>33</v>
       </c>
       <c r="F246">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G246">
         <v>0.35361359999999997</v>
@@ -6977,7 +6990,7 @@
         <v>34</v>
       </c>
       <c r="F247">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G247">
         <v>0.20823912</v>
@@ -7003,7 +7016,7 @@
         <v>31</v>
       </c>
       <c r="F248">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G248">
         <v>0.17333999999999999</v>
@@ -7029,7 +7042,7 @@
         <v>41</v>
       </c>
       <c r="F249">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G249">
         <v>0.14445</v>
@@ -7055,7 +7068,7 @@
         <v>42</v>
       </c>
       <c r="F250">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G250">
         <v>0.19067400000000001</v>
@@ -7081,7 +7094,7 @@
         <v>43</v>
       </c>
       <c r="F251">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G251">
         <v>0.20454120000000001</v>
@@ -7107,7 +7120,7 @@
         <v>33</v>
       </c>
       <c r="F252">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G252">
         <v>0.31201200000000001</v>
@@ -7133,7 +7146,7 @@
         <v>34</v>
       </c>
       <c r="F253">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="G253">
         <v>0.1837404</v>
@@ -16972,5 +16985,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/transport_costs_emissions.xlsx
+++ b/Data/transport_costs_emissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_37D19DEF87815E2EFBD92C11595ED87656C9AF45" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3072A9F-94E0-4295-8094-3A7957534BB6}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_37D19DEF87815E2EFBD92C11595ED87656C9AF45" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD742ABC-9DAC-407F-B615-E979A66E57B8}"/>
   <bookViews>
     <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,15 +237,21 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -265,21 +271,15 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -295,23 +295,21 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74AC4D21-4694-4090-9C4D-A67DC2D32754}" name="Table1" displayName="Table1" ref="A1:H631" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74AC4D21-4694-4090-9C4D-A67DC2D32754}" name="Table1" displayName="Table1" ref="A1:H631" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:H631" xr:uid="{74AC4D21-4694-4090-9C4D-A67DC2D32754}">
     <filterColumn colId="4">
       <filters>
         <filter val="Hydrogen"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="2022"/>
-        <filter val="2026"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{A0CB83F7-D0CC-4E13-B5A6-EA1FD3789B93}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A0CB83F7-D0CC-4E13-B5A6-EA1FD3789B93}" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{0C230E83-9ADD-4E54-B49B-45F2AED26F1B}" name="Mode"/>
     <tableColumn id="3" xr3:uid="{9AE901D3-5B98-48B8-82BC-BE5B18C9ED9C}" name="Product group"/>
     <tableColumn id="4" xr3:uid="{AE3F73DA-C4B0-4F97-B61B-6350EA50332A}" name="Vehicle type"/>
@@ -612,7 +610,7 @@
   <dimension ref="A1:H631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7254,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7384,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -7514,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -7644,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -7774,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -7904,7 +7902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -8034,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -8190,7 +8188,7 @@
         <v>8.6027119281020674</v>
       </c>
     </row>
-    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -8372,7 +8370,7 @@
         <v>17.8671709275966</v>
       </c>
     </row>
-    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -8554,7 +8552,7 @@
         <v>17.8671709275966</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -8736,7 +8734,7 @@
         <v>17.8671709275966</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -8918,7 +8916,7 @@
         <v>11.58057374936817</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -9100,7 +9098,7 @@
         <v>11.58057374936817</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -9282,7 +9280,7 @@
         <v>8.9997601709375488</v>
       </c>
     </row>
-    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -9490,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -9646,7 +9644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -9802,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -9958,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -10114,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -10270,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -10426,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -10530,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -10660,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -10790,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -10920,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -11050,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -11180,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -11310,7 +11308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -11466,7 +11464,7 @@
         <v>8.0191412866628866</v>
       </c>
     </row>
-    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -11648,7 +11646,7 @@
         <v>16.65513959537676</v>
       </c>
     </row>
-    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -11830,7 +11828,7 @@
         <v>16.65513959537676</v>
       </c>
     </row>
-    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -12012,7 +12010,7 @@
         <v>16.65513959537676</v>
       </c>
     </row>
-    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -12194,7 +12192,7 @@
         <v>10.79499788589235</v>
       </c>
     </row>
-    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -12376,7 +12374,7 @@
         <v>10.79499788589235</v>
       </c>
     </row>
-    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -12558,7 +12556,7 @@
         <v>8.3892554998934816</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -12766,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -12922,7 +12920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -13078,7 +13076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -13234,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -13390,7 +13388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -13546,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -13702,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -13806,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -13936,7 +13934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -14066,7 +14064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -14196,7 +14194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -14326,7 +14324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -14456,7 +14454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -14586,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -14742,7 +14740,7 @@
         <v>7.4751575448427943</v>
       </c>
     </row>
-    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -14924,7 +14922,7 @@
         <v>15.52532720851965</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -15106,7 +15104,7 @@
         <v>15.52532720851965</v>
       </c>
     </row>
-    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -15288,7 +15286,7 @@
         <v>15.52532720851965</v>
       </c>
     </row>
-    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -15470,7 +15468,7 @@
         <v>10.06271207959607</v>
       </c>
     </row>
-    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -15652,7 +15650,7 @@
         <v>10.06271207959607</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -15834,7 +15832,7 @@
         <v>7.8201648161432313</v>
       </c>
     </row>
-    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -16042,7 +16040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -16198,7 +16196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -16354,7 +16352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -16510,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -16666,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -16822,7 +16820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -16978,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>628</v>
       </c>

--- a/Data/transport_costs_emissions.xlsx
+++ b/Data/transport_costs_emissions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_37D19DEF87815E2EFBD92C11595ED87656C9AF45" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD742ABC-9DAC-407F-B615-E979A66E57B8}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_37D19DEF87815E2EFBD92C11595ED87656C9AF45" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9363B5D6-4875-416F-A11A-857B7E2F9942}"/>
   <bookViews>
     <workbookView xWindow="13800" yWindow="0" windowWidth="30345" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,7 +304,17 @@
   <autoFilter ref="A1:H631" xr:uid="{74AC4D21-4694-4090-9C4D-A67DC2D32754}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Hydrogen"/>
+        <filter val="Biodiesel"/>
+        <filter val="Biogas"/>
+        <filter val="Diesel"/>
+        <filter val="HFO"/>
+        <filter val="LNG"/>
+        <filter val="MGO"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2022"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -610,7 +620,7 @@
   <dimension ref="A1:H631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+      <selection activeCell="H2" sqref="H2:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -700,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -726,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -752,7 +762,7 @@
         <v>9.3478260869565233</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -778,7 +788,7 @@
         <v>8.4782608695652186</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -830,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -856,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -882,7 +892,7 @@
         <v>5.2121212121212119</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -908,7 +918,7 @@
         <v>4.7272727272727284</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -986,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1012,7 +1022,7 @@
         <v>5.2121212121212119</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1038,7 +1048,7 @@
         <v>4.7272727272727284</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1090,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1116,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1142,7 +1152,7 @@
         <v>5.2121212121212119</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1168,7 +1178,7 @@
         <v>4.7272727272727284</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1220,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1246,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1272,7 +1282,7 @@
         <v>5.2121212121212119</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1298,7 +1308,7 @@
         <v>4.7272727272727284</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1350,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1376,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1402,7 +1412,7 @@
         <v>5.0588235294117636</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1428,7 +1438,7 @@
         <v>4.5882352941176467</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1480,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1506,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1532,7 +1542,7 @@
         <v>5.2121212121212119</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1558,7 +1568,7 @@
         <v>4.7272727272727284</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1584,7 +1594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1610,7 +1620,7 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1636,7 +1646,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1714,7 +1724,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1740,7 +1750,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1766,7 +1776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1792,7 +1802,7 @@
         <v>25.11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1818,7 +1828,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1896,7 +1906,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1922,7 +1932,7 @@
         <v>6.48</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1948,7 +1958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1974,7 +1984,7 @@
         <v>25.11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2000,7 +2010,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2078,7 +2088,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2104,7 +2114,7 @@
         <v>6.48</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2130,7 +2140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2156,7 +2166,7 @@
         <v>25.11</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2182,7 +2192,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2260,7 +2270,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2286,7 +2296,7 @@
         <v>6.48</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2312,7 +2322,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2338,7 +2348,7 @@
         <v>16.274999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2364,7 +2374,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2442,7 +2452,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2468,7 +2478,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2494,7 +2504,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2520,7 +2530,7 @@
         <v>16.274999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2546,7 +2556,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2624,7 +2634,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2650,7 +2660,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2676,7 +2686,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2702,7 +2712,7 @@
         <v>12.648</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2728,7 +2738,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2806,7 +2816,7 @@
         <v>12.24</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2832,7 +2842,7 @@
         <v>3.2639999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2936,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2962,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2988,7 +2998,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3092,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3118,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3144,7 +3154,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3248,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3274,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3300,7 +3310,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3430,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3456,7 +3466,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3560,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3586,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3612,7 +3622,7 @@
         <v>3.58</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3716,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3742,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3768,7 +3778,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3872,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3898,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3976,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4106,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4236,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4366,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4496,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4626,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4756,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4912,7 +4922,7 @@
         <v>8.8478629366490988</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5094,7 +5104,7 @@
         <v>18.376330714578899</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5276,7 +5286,7 @@
         <v>18.376330714578899</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5458,7 +5468,7 @@
         <v>18.376330714578899</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5640,7 +5650,7 @@
         <v>11.910584722412249</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5822,7 +5832,7 @@
         <v>11.910584722412249</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6004,7 +6014,7 @@
         <v>9.2562258414175211</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6212,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6368,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6524,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6680,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -6836,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -6992,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -7148,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7252,7 +7262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7382,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -7512,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -7642,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -7772,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -7902,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -8032,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -8188,7 +8198,7 @@
         <v>8.6027119281020674</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -8370,7 +8380,7 @@
         <v>17.8671709275966</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -8552,7 +8562,7 @@
         <v>17.8671709275966</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -8734,7 +8744,7 @@
         <v>17.8671709275966</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -8916,7 +8926,7 @@
         <v>11.58057374936817</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -9098,7 +9108,7 @@
         <v>11.58057374936817</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -9280,7 +9290,7 @@
         <v>8.9997601709375488</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -9488,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -9644,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -9800,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -9956,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -10112,7 +10122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -10268,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -10424,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -10528,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -10658,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -10788,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -10918,7 +10928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -11048,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -11178,7 +11188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -11308,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -11464,7 +11474,7 @@
         <v>8.0191412866628866</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -11646,7 +11656,7 @@
         <v>16.65513959537676</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -11828,7 +11838,7 @@
         <v>16.65513959537676</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -12010,7 +12020,7 @@
         <v>16.65513959537676</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -12192,7 +12202,7 @@
         <v>10.79499788589235</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -12374,7 +12384,7 @@
         <v>10.79499788589235</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -12556,7 +12566,7 @@
         <v>8.3892554998934816</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -12764,7 +12774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -12920,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -13076,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -13232,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -13388,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -13544,7 +13554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -13700,7 +13710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -13804,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -13934,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -14064,7 +14074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -14194,7 +14204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -14324,7 +14334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -14454,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -14584,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -14740,7 +14750,7 @@
         <v>7.4751575448427943</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -14922,7 +14932,7 @@
         <v>15.52532720851965</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -15104,7 +15114,7 @@
         <v>15.52532720851965</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -15286,7 +15296,7 @@
         <v>15.52532720851965</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -15468,7 +15478,7 @@
         <v>10.06271207959607</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -15650,7 +15660,7 @@
         <v>10.06271207959607</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -15832,7 +15842,7 @@
         <v>7.8201648161432313</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -16040,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -16196,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -16352,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -16508,7 +16518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -16664,7 +16674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -16820,7 +16830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -16976,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>628</v>
       </c>
